--- a/dataPierre/form.xlsx
+++ b/dataPierre/form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="83">
   <si>
     <t>Timestamp</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Chef d’entreprise </t>
   </si>
   <si>
-    <t xml:space="preserve">quand je suis malade </t>
-  </si>
-  <si>
     <t>Coût de la visite, Manque de temps</t>
   </si>
   <si>
@@ -170,19 +167,10 @@
     <t>Hors territoire Français</t>
   </si>
   <si>
-    <t>Pas malade</t>
-  </si>
-  <si>
     <t>Flemmardise, Peur du médecin</t>
   </si>
   <si>
-    <t>chef d entreprise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Profession libérale </t>
-  </si>
-  <si>
-    <t>Situation pas assez critique</t>
   </si>
   <si>
     <t>Ne souhaite pas se prononcer</t>
@@ -206,25 +194,7 @@
     <t>Coût de la visite, Flemmardise, Manque de temps, Peur du médecin</t>
   </si>
   <si>
-    <t>Marine d'Etat</t>
-  </si>
-  <si>
-    <t>Symptômes inquiétants, Suivi d'une maladie, certificat médical</t>
-  </si>
-  <si>
-    <t>pas malade</t>
-  </si>
-  <si>
-    <t>Pas besoin je sais ce que j’ai</t>
-  </si>
-  <si>
     <t xml:space="preserve">Je n’en ressens pas le besoin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opération </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous pouvons nous soigner seul, la population abuse des médecins </t>
   </si>
   <si>
     <t xml:space="preserve">Sans profession </t>
@@ -233,16 +203,7 @@
     <t>Manque de temps, Peur du médecin</t>
   </si>
   <si>
-    <t>Je n’en ressent pas le moindre besoin. Je trouve qu’en France on prend beaucoup trop de médicaments. On est surmédicalisé. De plus, lorsque l’on prend des médicaments, on oublie d’apprendre à écouter son corps et on ne sait même plus si on est malade ou pas. Je parle pour des maladies non graves. Je préfère me soigner aux plantes, au sommeil et avec une bonne hygiène de vie.</t>
-  </si>
-  <si>
     <t>Simple check up, Suivi d'une maladie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La peur de la mort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je sais ce que j’ai </t>
   </si>
   <si>
     <t xml:space="preserve">Je me soigne toute seule </t>
@@ -257,31 +218,13 @@
     <t>J’attends que ça passe......</t>
   </si>
   <si>
-    <t>Symptômes inquiétants, Suivi d'une maladie, pilule</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coût de la visite, Si j’ai déjà eu le symptôme je sais le soigner </t>
-  </si>
-  <si>
-    <t>En processus de réorientation</t>
-  </si>
-  <si>
-    <t>Mal pas assez important ou tout début de maladie</t>
   </si>
   <si>
     <t>DG</t>
   </si>
   <si>
     <t>je suis medecin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptômes inquiétants, Je ne peux pas remédier moi même à ma maladie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coût de la visite, Flemmardise, Manque de temps, Il faut trouver un médecin sérieux.... Mais c'est dur et cher donc, je préfère ne pas y aller, car beaucoup sont incompétents à mon goût. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je le soigne avec des plantes et huiles essentielles </t>
   </si>
   <si>
     <t>Parents médecins</t>
@@ -293,9 +236,6 @@
     <t>Chef d’entreprise</t>
   </si>
   <si>
-    <t>Retraité</t>
-  </si>
-  <si>
     <t>Retraitée</t>
   </si>
   <si>
@@ -305,16 +245,7 @@
     <t xml:space="preserve">auto entrepreneur </t>
   </si>
   <si>
-    <t xml:space="preserve">Symptômes inquiétants, Rarement blessure sportive. </t>
-  </si>
-  <si>
     <t>Commercante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dès que je tousse </t>
-  </si>
-  <si>
-    <t>Infirmière liberal</t>
   </si>
   <si>
     <t>OuiRaison</t>
@@ -606,11 +537,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K275"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -623,34 +554,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1019,28 +950,34 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>43748.749389803241</v>
+        <v>43748.749424479167</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
@@ -1048,22 +985,22 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>43748.749424479167</v>
+        <v>43748.749476562502</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>6</v>
@@ -1072,18 +1009,18 @@
         <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>43748.749476562502</v>
+        <v>43748.749785335647</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -1101,16 +1038,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>20</v>
@@ -1118,13 +1049,13 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>43748.749785335647</v>
+        <v>43748.74988959491</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -1139,7 +1070,13 @@
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>20</v>
@@ -1147,16 +1084,16 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>43748.74988959491</v>
+        <v>43748.7503693287</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
@@ -1165,16 +1102,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>20</v>
@@ -1182,36 +1113,42 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>43748.7503693287</v>
+        <v>43748.750841898145</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>43748.750841898145</v>
+        <v>43748.750850648154</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -1235,24 +1172,24 @@
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>43748.750850648154</v>
+        <v>43748.750898020837</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -1264,24 +1201,18 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>43748.750898020837</v>
+        <v>43748.751085057869</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
@@ -1290,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1299,91 +1230,94 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>43748.751085057869</v>
+        <v>43748.751100000001</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>43748.751100000001</v>
+        <v>43748.751102152775</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>43748.751102152775</v>
+        <v>43748.75111409722</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1392,24 +1326,27 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>43748.75111409722</v>
+        <v>43748.751118414351</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -1418,45 +1355,45 @@
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>43748.751118414351</v>
+        <v>43748.751269918983</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1464,28 +1401,22 @@
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>43748.751269918983</v>
+        <v>43748.751432951394</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -1497,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>20</v>
@@ -1505,7 +1436,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>43748.751432951394</v>
+        <v>43748.751788009264</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1</v>
@@ -1526,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>20</v>
@@ -1534,7 +1465,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>43748.751788009264</v>
+        <v>43748.751809837966</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
@@ -1546,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -1555,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>20</v>
@@ -1563,7 +1494,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>43748.751809837966</v>
+        <v>43748.751970763886</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
@@ -1575,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>20</v>
@@ -1592,63 +1523,63 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>43748.751970763886</v>
+        <v>43748.752049664356</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>43748.752049664356</v>
+        <v>43748.752509791666</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -1656,7 +1587,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>43748.752509791666</v>
+        <v>43748.752637013888</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -1678,6 +1609,12 @@
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -1685,13 +1622,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>43748.752637013888</v>
+        <v>43748.752781145835</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>3</v>
@@ -1703,16 +1640,16 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>10</v>
@@ -1720,7 +1657,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>43748.752781145835</v>
+        <v>43748.753031701388</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
@@ -1729,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -1741,13 +1678,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -1755,39 +1686,45 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>43748.753031701388</v>
+        <v>43748.753181793982</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>43748.753181793982</v>
+        <v>43748.753453761572</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
@@ -1805,13 +1742,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>20</v>
@@ -1819,16 +1750,16 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>43748.753453761572</v>
+        <v>43748.753569236113</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>4</v>
@@ -1848,39 +1779,45 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>43748.753569236113</v>
+        <v>43748.753744918984</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>43748.753744918984</v>
+        <v>43748.754796423615</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>2</v>
@@ -1892,30 +1829,24 @@
         <v>36</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>43748.754796423615</v>
+        <v>43748.754901724533</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>2</v>
@@ -1924,16 +1855,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>20</v>
@@ -1941,57 +1872,63 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>43748.754901724533</v>
+        <v>43748.755345462967</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>43748.756368333328</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
-        <v>43748.755345462967</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>20</v>
@@ -1999,7 +1936,7 @@
     </row>
     <row r="44" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>43748.755364351848</v>
+        <v>43748.756399918981</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
@@ -2011,30 +1948,27 @@
         <v>3</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>43748.756368333328</v>
+        <v>43748.756825497687</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>2</v>
@@ -2055,18 +1989,18 @@
         <v>18</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>43748.756399918981</v>
+        <v>43748.756881967594</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>28</v>
@@ -2078,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
@@ -2087,7 +2021,10 @@
         <v>12</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>20</v>
@@ -2095,13 +2032,13 @@
     </row>
     <row r="47" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>43748.756825497687</v>
+        <v>43748.757192986115</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
@@ -2119,18 +2056,18 @@
         <v>18</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>43748.756881967594</v>
+        <v>43748.758992083334</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>28</v>
@@ -2142,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -2151,10 +2088,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>20</v>
@@ -2162,13 +2096,13 @@
     </row>
     <row r="49" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>43748.757192986115</v>
+        <v>43748.759028622684</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
@@ -2177,16 +2111,13 @@
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>27</v>
@@ -2197,10 +2128,10 @@
     </row>
     <row r="50" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>43748.758992083334</v>
+        <v>43748.759195682869</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>2</v>
@@ -2209,24 +2140,27 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>43748.759028622684</v>
+        <v>43748.760601296293</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -2244,27 +2178,30 @@
         <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>43748.759195682869</v>
+        <v>43748.761784085647</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
@@ -2279,10 +2216,13 @@
         <v>6</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
@@ -2290,7 +2230,7 @@
     </row>
     <row r="53" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>43748.760601296293</v>
+        <v>43748.762082094909</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1</v>
@@ -2305,19 +2245,13 @@
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>10</v>
@@ -2325,19 +2259,19 @@
     </row>
     <row r="54" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>43748.761784085647</v>
+        <v>43748.762587627316</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
@@ -2349,10 +2283,10 @@
         <v>18</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
@@ -2360,28 +2294,34 @@
     </row>
     <row r="55" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>43748.762082094909</v>
+        <v>43748.762700219908</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>10</v>
@@ -2389,10 +2329,10 @@
     </row>
     <row r="56" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>43748.762587627316</v>
+        <v>43748.762795856484</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>2</v>
@@ -2401,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>5</v>
@@ -2413,80 +2353,74 @@
         <v>18</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>43748.762700219908</v>
+        <v>43748.763245937502</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>43748.762795856484</v>
+        <v>43748.76340413194</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>20</v>
@@ -2494,98 +2428,101 @@
     </row>
     <row r="59" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>43748.763245937502</v>
+        <v>43748.764388599535</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>43748.76340413194</v>
+        <v>43748.765271979166</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>43748.764388599535</v>
+        <v>43748.765283680557</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>10</v>
@@ -2593,42 +2530,36 @@
     </row>
     <row r="62" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>43748.765271979166</v>
+        <v>43748.765287766204</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>43748.765283680557</v>
+        <v>43748.766031018517</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -2640,19 +2571,19 @@
         <v>29</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>10</v>
@@ -2660,36 +2591,42 @@
     </row>
     <row r="64" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>43748.765287766204</v>
+        <v>43748.766058171299</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>43748.766031018517</v>
+        <v>43748.766077060187</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
@@ -2698,39 +2635,39 @@
         <v>38</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>43748.766058171299</v>
+        <v>43748.767594363424</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>4</v>
@@ -2739,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -2756,31 +2693,28 @@
     </row>
     <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>43748.766077060187</v>
+        <v>43748.767687731481</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>20</v>
@@ -2788,19 +2722,19 @@
     </row>
     <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>43748.767594363424</v>
+        <v>43748.768112511578</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>11</v>
@@ -2815,36 +2749,42 @@
         <v>34</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>43748.767687731481</v>
+        <v>43748.768566446757</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>20</v>
@@ -2852,22 +2792,22 @@
     </row>
     <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>43748.768112511578</v>
+        <v>43748.769107372689</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>12</v>
@@ -2875,19 +2815,13 @@
       <c r="H70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="K70" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>43748.768566446757</v>
+        <v>43748.769139594908</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1</v>
@@ -2899,22 +2833,22 @@
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>20</v>
@@ -2922,22 +2856,22 @@
     </row>
     <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>43748.769107372689</v>
+        <v>43748.769310937496</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>12</v>
@@ -2946,18 +2880,18 @@
         <v>18</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>43748.769139594908</v>
+        <v>43748.769399004625</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>3</v>
@@ -2974,31 +2908,25 @@
       <c r="H73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K73" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>43748.769310937496</v>
+        <v>43748.770235300923</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>11</v>
@@ -3015,10 +2943,10 @@
     </row>
     <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>43748.769399004625</v>
+        <v>43748.770563217593</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>16</v>
@@ -3030,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>12</v>
@@ -3038,83 +2966,92 @@
       <c r="H75" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K75" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>43748.770235300923</v>
+        <v>43748.771149976848</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K76" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>43748.770457604165</v>
+        <v>43748.771275532403</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>43748.770563217593</v>
+        <v>43748.771435312505</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>3</v>
@@ -3126,39 +3063,36 @@
         <v>11</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>43748.771149976848</v>
+        <v>43748.771458414354</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>6</v>
@@ -3167,18 +3101,18 @@
         <v>18</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>43748.771275532403</v>
+        <v>43748.77232481481</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>28</v>
@@ -3187,22 +3121,22 @@
         <v>35</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>20</v>
@@ -3210,7 +3144,7 @@
     </row>
     <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>43748.771435312505</v>
+        <v>43748.772751331024</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1</v>
@@ -3231,24 +3165,24 @@
         <v>6</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>43748.771458414354</v>
+        <v>43748.77285361111</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3</v>
@@ -3257,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>6</v>
@@ -3266,10 +3200,10 @@
         <v>18</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>10</v>
@@ -3277,7 +3211,7 @@
     </row>
     <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>43748.77232481481</v>
+        <v>43748.772875138893</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>28</v>
@@ -3286,10 +3220,10 @@
         <v>35</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -3298,30 +3232,33 @@
         <v>6</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>43748.772751331024</v>
+        <v>43748.773015578699</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>11</v>
@@ -3330,18 +3267,21 @@
         <v>6</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>43748.77285361111</v>
+        <v>43748.773245416669</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1</v>
@@ -3356,27 +3296,21 @@
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>43748.772875138893</v>
+        <v>43748.773308854172</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>28</v>
@@ -3385,10 +3319,10 @@
         <v>35</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>11</v>
@@ -3398,9 +3332,6 @@
       </c>
       <c r="H86" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>32</v>
@@ -3411,22 +3342,22 @@
     </row>
     <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>43748.773015578699</v>
+        <v>43748.773687800931</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>6</v>
@@ -3435,24 +3366,24 @@
         <v>18</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>43748.773245416669</v>
+        <v>43748.773854999999</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3</v>
@@ -3464,65 +3395,71 @@
         <v>5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>43748.773308854172</v>
+        <v>43748.773949733797</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>43748.773687800931</v>
+        <v>43748.774913680551</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>6</v>
@@ -3534,15 +3471,15 @@
         <v>30</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>43748.773854999999</v>
+        <v>43748.775723182873</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>28</v>
@@ -3557,19 +3494,13 @@
         <v>4</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -3577,54 +3508,57 @@
     </row>
     <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>43748.773949733797</v>
+        <v>43748.777193599541</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>43748.774913680551</v>
+        <v>43748.778368888889</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>6</v>
@@ -3633,10 +3567,10 @@
         <v>18</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>10</v>
@@ -3644,7 +3578,7 @@
     </row>
     <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>43748.775723182873</v>
+        <v>43748.778516180551</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>28</v>
@@ -3659,33 +3593,39 @@
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K94" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>43748.777193599541</v>
+        <v>43748.779459513884</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>5</v>
@@ -3696,22 +3636,16 @@
       <c r="H95" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K95" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>43748.778368888889</v>
+        <v>43748.77965675926</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -3720,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>6</v>
@@ -3732,10 +3666,10 @@
         <v>18</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>10</v>
@@ -3743,10 +3677,10 @@
     </row>
     <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>43748.778516180551</v>
+        <v>43748.779862175928</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2</v>
@@ -3755,51 +3689,45 @@
         <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K97" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>43748.779459513884</v>
+        <v>43748.779912511571</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>10</v>
@@ -3807,42 +3735,36 @@
     </row>
     <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>43748.77965675926</v>
+        <v>43748.779922083333</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>43748.779862175928</v>
+        <v>43748.780002754633</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
@@ -3857,13 +3779,19 @@
         <v>36</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3871,65 +3799,65 @@
     </row>
     <row r="101" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>43748.779912511571</v>
+        <v>43748.780227881944</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
-        <v>43748.779922083333</v>
+        <v>43748.780319664351</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>43748.780002754633</v>
+        <v>43748.780321053244</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1</v>
@@ -3941,10 +3869,10 @@
         <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>6</v>
@@ -3953,10 +3881,10 @@
         <v>18</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>10</v>
@@ -3964,13 +3892,13 @@
     </row>
     <row r="104" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>43748.780227881944</v>
+        <v>43748.780725104167</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>3</v>
@@ -3985,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>20</v>
@@ -3993,10 +3921,10 @@
     </row>
     <row r="105" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>43748.780319664351</v>
+        <v>43748.781845509264</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>2</v>
@@ -4005,30 +3933,36 @@
         <v>3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
-        <v>43748.780321053244</v>
+        <v>43748.782000231484</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>3</v>
@@ -4046,10 +3980,10 @@
         <v>18</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>10</v>
@@ -4057,13 +3991,13 @@
     </row>
     <row r="107" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>43748.780725104167</v>
+        <v>43748.78269537037</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>3</v>
@@ -4075,33 +4009,39 @@
         <v>5</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
-        <v>43748.781845509264</v>
+        <v>43748.782820266206</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>6</v>
@@ -4109,25 +4049,22 @@
       <c r="H108" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="J108" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>43748.782000231484</v>
+        <v>43748.782994421301</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>3</v>
@@ -4139,33 +4076,27 @@
         <v>5</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="K109" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>43748.78269537037</v>
+        <v>43748.783016006942</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>4</v>
@@ -4174,16 +4105,10 @@
         <v>5</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>10</v>
@@ -4191,10 +4116,10 @@
     </row>
     <row r="111" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>43748.782820266206</v>
+        <v>43748.783673819446</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>35</v>
@@ -4209,21 +4134,18 @@
         <v>5</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>43748.782994421301</v>
+        <v>43748.784375405092</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -4235,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>12</v>
@@ -4246,28 +4168,34 @@
       <c r="H112" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K112" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>43748.783016006942</v>
+        <v>43748.784644814819</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>12</v>
@@ -4276,12 +4204,12 @@
         <v>18</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
-        <v>43748.783673819446</v>
+        <v>43748.784777210647</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>28</v>
@@ -4290,7 +4218,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>4</v>
@@ -4299,53 +4227,56 @@
         <v>5</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>43748.784375405092</v>
+        <v>43748.784869282405</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>43748.784644814819</v>
+        <v>43748.785029259263</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>1</v>
@@ -4366,50 +4297,56 @@
         <v>12</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>43748.784777210647</v>
+        <v>43748.785326689816</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>43748.784869282405</v>
+        <v>43748.786346944442</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>1</v>
@@ -4421,30 +4358,33 @@
         <v>3</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>43748.785029259263</v>
+        <v>43748.786405300925</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>2</v>
@@ -4456,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>12</v>
@@ -4464,25 +4404,22 @@
       <c r="H119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="J119" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>43748.785326689816</v>
+        <v>43748.786922187501</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>3</v>
@@ -4491,42 +4428,42 @@
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>43748.786346944442</v>
+        <v>43748.78697591435</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>6</v>
@@ -4535,21 +4472,21 @@
         <v>18</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>43748.786405300925</v>
+        <v>43748.787775787037</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>2</v>
@@ -4564,13 +4501,16 @@
         <v>5</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>20</v>
@@ -4578,39 +4518,42 @@
     </row>
     <row r="123" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>43748.786561898145</v>
+        <v>43748.787791898147</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>43748.786922187501</v>
+        <v>43748.788648136571</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>1</v>
@@ -4622,22 +4565,22 @@
         <v>3</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>20</v>
@@ -4645,22 +4588,22 @@
     </row>
     <row r="125" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>43748.78697591435</v>
+        <v>43748.790713668983</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>6</v>
@@ -4668,19 +4611,13 @@
       <c r="H125" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K125" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>43748.787775787037</v>
+        <v>43748.791250011578</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>1</v>
@@ -4692,57 +4629,51 @@
         <v>3</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>43748.787791898147</v>
+        <v>43748.792289409721</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>10</v>
@@ -4750,48 +4681,48 @@
     </row>
     <row r="128" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>43748.788648136571</v>
+        <v>43748.792291666672</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>43748.790686898152</v>
+        <v>43748.793995902779</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>3</v>
@@ -4800,48 +4731,54 @@
         <v>4</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>43748.790713668983</v>
+        <v>43748.794172511574</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>10</v>
@@ -4849,27 +4786,33 @@
     </row>
     <row r="131" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>43748.791250011578</v>
+        <v>43748.795098576389</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K131" s="3" t="s">
@@ -4878,34 +4821,31 @@
     </row>
     <row r="132" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>43748.792289409721</v>
+        <v>43748.795375624999</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>10</v>
@@ -4913,16 +4853,16 @@
     </row>
     <row r="133" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>43748.792291666672</v>
+        <v>43748.795777280087</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>4</v>
@@ -4940,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>10</v>
@@ -4948,7 +4888,7 @@
     </row>
     <row r="134" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
-        <v>43748.792623090281</v>
+        <v>43748.796560358795</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -4960,30 +4900,27 @@
         <v>3</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
-        <v>43748.793995902779</v>
+        <v>43748.796764155093</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -4998,19 +4935,19 @@
         <v>4</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>10</v>
@@ -5018,13 +4955,13 @@
     </row>
     <row r="136" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>43748.794172511574</v>
+        <v>43748.796933715275</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>3</v>
@@ -5033,16 +4970,16 @@
         <v>4</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>9</v>
@@ -5053,19 +4990,19 @@
     </row>
     <row r="137" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>43748.795098576389</v>
+        <v>43748.797618611112</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>11</v>
@@ -5074,13 +5011,10 @@
         <v>6</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>10</v>
@@ -5088,13 +5022,13 @@
     </row>
     <row r="138" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>43748.795375624999</v>
+        <v>43748.79804115741</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>3</v>
@@ -5103,51 +5037,54 @@
         <v>23</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>43748.795777280087</v>
+        <v>43748.799191909726</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>10</v>
@@ -5155,13 +5092,13 @@
     </row>
     <row r="140" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>43748.796560358795</v>
+        <v>43748.801004444445</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>3</v>
@@ -5173,13 +5110,16 @@
         <v>5</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>20</v>
@@ -5187,16 +5127,16 @@
     </row>
     <row r="141" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>43748.796764155093</v>
+        <v>43748.803563541667</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>4</v>
@@ -5208,30 +5148,24 @@
         <v>12</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>43748.796933715275</v>
+        <v>43748.805285324073</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>4</v>
@@ -5243,100 +5177,97 @@
         <v>12</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>43748.797618611112</v>
+        <v>43748.812272604162</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>43748.79804115741</v>
+        <v>43748.813018715278</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>43748.799191909726</v>
+        <v>43748.813493888891</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>5</v>
@@ -5345,48 +5276,45 @@
         <v>6</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>43748.801004444445</v>
+        <v>43748.816194548606</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>20</v>
@@ -5394,7 +5322,7 @@
     </row>
     <row r="147" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>43748.803563541667</v>
+        <v>43748.816529328702</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -5409,30 +5337,36 @@
         <v>4</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>43748.805285324073</v>
+        <v>43748.822016319449</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>4</v>
@@ -5444,15 +5378,15 @@
         <v>12</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
-        <v>43748.812272604162</v>
+        <v>43748.822134120375</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1</v>
@@ -5461,7 +5395,7 @@
         <v>35</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>4</v>
@@ -5473,30 +5407,24 @@
         <v>12</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>43748.813018715278</v>
+        <v>43748.823495092598</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>4</v>
@@ -5505,13 +5433,10 @@
         <v>5</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>19</v>
@@ -5522,42 +5447,39 @@
     </row>
     <row r="151" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>43748.813493888891</v>
+        <v>43748.826613634257</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
-        <v>43748.816194548606</v>
+        <v>43748.831474525461</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>2</v>
@@ -5566,10 +5488,10 @@
         <v>3</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>6</v>
@@ -5578,53 +5500,53 @@
         <v>18</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
-        <v>43748.816529328702</v>
+        <v>43748.833626608801</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
-        <v>43748.822016319449</v>
+        <v>43748.835387175925</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>1</v>
@@ -5639,27 +5561,33 @@
         <v>4</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
-        <v>43748.822134120375</v>
+        <v>43748.83680041667</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>3</v>
@@ -5671,39 +5599,48 @@
         <v>5</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K155" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
-        <v>43748.823495092598</v>
+        <v>43748.840801307873</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>19</v>
@@ -5714,39 +5651,45 @@
     </row>
     <row r="157" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
-        <v>43748.826613634257</v>
+        <v>43748.845033171296</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>43748.831474525461</v>
+        <v>43748.846904756945</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>2</v>
@@ -5761,24 +5704,24 @@
         <v>11</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>43748.833626608801</v>
+        <v>43748.846910034721</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>1</v>
@@ -5790,22 +5733,16 @@
         <v>3</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>20</v>
@@ -5813,10 +5750,10 @@
     </row>
     <row r="160" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>43748.835387175925</v>
+        <v>43748.848763171292</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>2</v>
@@ -5825,7 +5762,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>11</v>
@@ -5834,13 +5771,13 @@
         <v>12</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>10</v>
@@ -5848,7 +5785,7 @@
     </row>
     <row r="161" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>43748.83680041667</v>
+        <v>43748.849437870369</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>1</v>
@@ -5863,30 +5800,24 @@
         <v>4</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>43748.838558333329</v>
+        <v>43748.852436828704</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>16</v>
@@ -5895,30 +5826,30 @@
         <v>17</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>43748.840801307873</v>
+        <v>43748.85378153935</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1</v>
@@ -5930,22 +5861,16 @@
         <v>3</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>10</v>
@@ -5953,16 +5878,16 @@
     </row>
     <row r="164" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>43748.845033171296</v>
+        <v>43748.855885509256</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>4</v>
@@ -5971,27 +5896,27 @@
         <v>5</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>43748.846904756945</v>
+        <v>43748.85728916667</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>2</v>
@@ -6023,13 +5948,13 @@
     </row>
     <row r="166" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>43748.846910034721</v>
+        <v>43748.859812731476</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>3</v>
@@ -6038,27 +5963,30 @@
         <v>4</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>43748.848763171292</v>
+        <v>43748.873138622686</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>3</v>
@@ -6070,80 +5998,80 @@
         <v>11</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>43748.849437870369</v>
+        <v>43748.873995358794</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>43748.852436828704</v>
+        <v>43748.879236909721</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>20</v>
@@ -6151,7 +6079,7 @@
     </row>
     <row r="170" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>43748.85378153935</v>
+        <v>43748.886536678241</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1</v>
@@ -6174,19 +6102,25 @@
       <c r="H170" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I170" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="K170" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>43748.855885509256</v>
+        <v>43748.892437303242</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>29</v>
@@ -6195,10 +6129,10 @@
         <v>4</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>18</v>
@@ -6215,19 +6149,19 @@
     </row>
     <row r="172" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>43748.85728916667</v>
+        <v>43748.893598194445</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>11</v>
@@ -6236,30 +6170,27 @@
         <v>12</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>43748.859812731476</v>
+        <v>43748.89649668982</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>4</v>
@@ -6270,11 +6201,11 @@
       <c r="G173" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H173" s="3" t="s">
-        <v>37</v>
+      <c r="I173" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>10</v>
@@ -6282,7 +6213,7 @@
     </row>
     <row r="174" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>43748.873138622686</v>
+        <v>43748.899118368055</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>28</v>
@@ -6291,7 +6222,7 @@
         <v>16</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>36</v>
@@ -6312,27 +6243,27 @@
         <v>19</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>43748.873995358794</v>
+        <v>43748.900559456015</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>6</v>
@@ -6341,30 +6272,30 @@
         <v>18</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>43748.876773020835</v>
+        <v>43748.900786805556</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>11</v>
@@ -6373,10 +6304,7 @@
         <v>12</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J176" s="3" t="s">
         <v>19</v>
@@ -6387,7 +6315,7 @@
     </row>
     <row r="177" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>43748.879236909721</v>
+        <v>43748.908877256945</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>1</v>
@@ -6405,18 +6333,24 @@
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>43748.886536678241</v>
+        <v>43748.915305821763</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>1</v>
@@ -6431,19 +6365,13 @@
         <v>4</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>20</v>
@@ -6451,13 +6379,13 @@
     </row>
     <row r="179" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>43748.892437303242</v>
+        <v>43748.916107638885</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>29</v>
@@ -6466,39 +6394,36 @@
         <v>4</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>43748.893598194445</v>
+        <v>43748.917713923613</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>11</v>
@@ -6507,42 +6432,42 @@
         <v>12</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>43748.89649668982</v>
+        <v>43748.917797534727</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H181" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I181" s="3" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>10</v>
@@ -6550,19 +6475,19 @@
     </row>
     <row r="182" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>43748.899118368055</v>
+        <v>43748.91968712963</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>11</v>
@@ -6572,12 +6497,6 @@
       </c>
       <c r="H182" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K182" s="3" t="s">
         <v>10</v>
@@ -6585,10 +6504,10 @@
     </row>
     <row r="183" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>43748.900559456015</v>
+        <v>43748.920922488425</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>2</v>
@@ -6597,71 +6516,71 @@
         <v>3</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>43748.900786805556</v>
+        <v>43748.931044942132</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I184" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J184" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>43748.908877256945</v>
+        <v>43748.933337326387</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>4</v>
@@ -6670,24 +6589,18 @@
         <v>11</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>43748.915305821763</v>
+        <v>43748.935854305557</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>1</v>
@@ -6705,10 +6618,16 @@
         <v>11</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>20</v>
@@ -6716,13 +6635,13 @@
     </row>
     <row r="187" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>43748.916107638885</v>
+        <v>43748.936222581018</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>29</v>
@@ -6734,21 +6653,24 @@
         <v>5</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>43748.917713923613</v>
+        <v>43748.93780255787</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>1</v>
@@ -6760,7 +6682,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>11</v>
@@ -6769,7 +6691,13 @@
         <v>12</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>10</v>
@@ -6777,22 +6705,22 @@
     </row>
     <row r="189" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>43748.917797534727</v>
+        <v>43748.937997766203</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>6</v>
@@ -6801,10 +6729,10 @@
         <v>18</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>10</v>
@@ -6812,28 +6740,31 @@
     </row>
     <row r="190" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>43748.91968712963</v>
+        <v>43748.956803530091</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>10</v>
@@ -6841,39 +6772,42 @@
     </row>
     <row r="191" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>43748.920922488425</v>
+        <v>43748.993382731482</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J191" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>43748.927989270829</v>
+        <v>43749.000819386572</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>1</v>
@@ -6888,27 +6822,27 @@
         <v>4</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>43748.931044942132</v>
+        <v>43749.004073101853</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>3</v>
@@ -6917,19 +6851,13 @@
         <v>4</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J193" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>10</v>
@@ -6937,7 +6865,7 @@
     </row>
     <row r="194" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>43748.933337326387</v>
+        <v>43749.008866932869</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>1</v>
@@ -6946,71 +6874,74 @@
         <v>16</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>43748.935854305557</v>
+        <v>43749.061704618056</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
-        <v>43748.936222581018</v>
+        <v>43749.130005451385</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>4</v>
@@ -7019,39 +6950,36 @@
         <v>5</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="J196" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
-        <v>43748.93780255787</v>
+        <v>43749.239804120371</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>12</v>
@@ -7060,27 +6988,27 @@
         <v>18</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J197" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>43748.937997766203</v>
+        <v>43749.3449516088</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>4</v>
@@ -7095,33 +7023,33 @@
         <v>18</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>43748.956803530091</v>
+        <v>43749.347573935185</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>12</v>
@@ -7130,27 +7058,27 @@
         <v>18</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>43748.960239143518</v>
+        <v>43749.360822129631</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>11</v>
@@ -7159,62 +7087,59 @@
         <v>6</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>43748.993382731482</v>
+        <v>43749.364805879624</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>43749.000819386572</v>
+        <v>43749.375381087964</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>3</v>
@@ -7223,13 +7148,16 @@
         <v>4</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K202" s="3" t="s">
         <v>10</v>
@@ -7237,16 +7165,16 @@
     </row>
     <row r="203" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>43749.004073101853</v>
+        <v>43749.375445219906</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>4</v>
@@ -7255,10 +7183,13 @@
         <v>5</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K203" s="3" t="s">
         <v>10</v>
@@ -7266,7 +7197,7 @@
     </row>
     <row r="204" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>43749.008866932869</v>
+        <v>43749.405207199074</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>1</v>
@@ -7275,7 +7206,7 @@
         <v>16</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>4</v>
@@ -7284,33 +7215,27 @@
         <v>5</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>43749.061704618056</v>
+        <v>43749.40665719907</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>4</v>
@@ -7319,13 +7244,16 @@
         <v>5</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K205" s="3" t="s">
         <v>10</v>
@@ -7333,16 +7261,16 @@
     </row>
     <row r="206" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>43749.130005451385</v>
+        <v>43749.415058148152</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>4</v>
@@ -7351,13 +7279,16 @@
         <v>5</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K206" s="3" t="s">
         <v>25</v>
@@ -7365,13 +7296,13 @@
     </row>
     <row r="207" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>43749.205320092587</v>
+        <v>43749.477757928238</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>3</v>
@@ -7380,27 +7311,27 @@
         <v>36</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>43749.239804120371</v>
+        <v>43749.488813726857</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>1</v>
@@ -7421,48 +7352,36 @@
         <v>12</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>43749.340631388885</v>
+        <v>43749.498319942126</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K209" s="3" t="s">
         <v>20</v>
@@ -7470,10 +7389,10 @@
     </row>
     <row r="210" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>43749.3449516088</v>
+        <v>43749.509146539349</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>2</v>
@@ -7485,59 +7404,53 @@
         <v>4</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I210" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K210" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>43749.347573935185</v>
+        <v>43749.511585208333</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>43749.360822129631</v>
+        <v>43749.533169120376</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>1</v>
@@ -7549,19 +7462,16 @@
         <v>3</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K212" s="3" t="s">
         <v>10</v>
@@ -7569,48 +7479,42 @@
     </row>
     <row r="213" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>43749.364805879624</v>
+        <v>43749.540293773149</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I213" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J213" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K213" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>43749.375381087964</v>
+        <v>43749.555897708335</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>3</v>
@@ -7622,13 +7526,10 @@
         <v>5</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K214" s="3" t="s">
         <v>10</v>
@@ -7636,71 +7537,74 @@
     </row>
     <row r="215" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>43749.375445219906</v>
+        <v>43749.558016168987</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>43749.405207199074</v>
+        <v>43749.56281747685</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>43749.40665719907</v>
+        <v>43749.566248877316</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>16</v>
@@ -7709,30 +7613,30 @@
         <v>3</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>43749.415058148152</v>
+        <v>43749.569231539353</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>1</v>
@@ -7750,36 +7654,36 @@
         <v>5</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>43749.477757928238</v>
+        <v>43749.588153240737</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>5</v>
@@ -7788,13 +7692,10 @@
         <v>12</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K219" s="3" t="s">
         <v>20</v>
@@ -7802,28 +7703,34 @@
     </row>
     <row r="220" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
-        <v>43749.488813726857</v>
+        <v>43749.600416226851</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K220" s="3" t="s">
         <v>10</v>
@@ -7831,57 +7738,63 @@
     </row>
     <row r="221" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
-        <v>43749.498319942126</v>
+        <v>43749.603108599535</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
-        <v>43749.509146539349</v>
+        <v>43749.613836180557</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K222" s="3" t="s">
         <v>10</v>
@@ -7889,31 +7802,31 @@
     </row>
     <row r="223" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
-        <v>43749.511585208333</v>
+        <v>43749.626300023148</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I223" s="3" t="s">
-        <v>34</v>
+      <c r="H223" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K223" s="3" t="s">
         <v>10</v>
@@ -7921,42 +7834,42 @@
     </row>
     <row r="224" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
-        <v>43749.533169120376</v>
+        <v>43749.628943194446</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
-        <v>43749.540293773149</v>
+        <v>43749.631162233796</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>3</v>
@@ -7968,10 +7881,16 @@
         <v>5</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K225" s="3" t="s">
         <v>10</v>
@@ -7979,48 +7898,51 @@
     </row>
     <row r="226" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
-        <v>43749.555897708335</v>
+        <v>43749.714811516205</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
-        <v>43749.558016168987</v>
+        <v>43749.732844178245</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>11</v>
@@ -8029,33 +7951,33 @@
         <v>12</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
-        <v>43749.56281747685</v>
+        <v>43749.740932673609</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>11</v>
@@ -8064,65 +7986,68 @@
         <v>12</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>43749.566248877316</v>
+        <v>43749.746849907402</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>43749.569231539353</v>
+        <v>43749.833350648143</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>6</v>
@@ -8131,10 +8056,10 @@
         <v>18</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K230" s="3" t="s">
         <v>10</v>
@@ -8142,16 +8067,16 @@
     </row>
     <row r="231" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
-        <v>43749.588153240737</v>
+        <v>43749.837324490742</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>4</v>
@@ -8160,112 +8085,118 @@
         <v>5</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>43749.600416226851</v>
+        <v>43749.849861655093</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>43749.603108599535</v>
+        <v>43749.859091377315</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
-        <v>43749.613836180557</v>
+        <v>43749.922519386571</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K234" s="3" t="s">
         <v>10</v>
@@ -8273,19 +8204,19 @@
     </row>
     <row r="235" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
-        <v>43749.626300023148</v>
+        <v>43749.980835798611</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>11</v>
@@ -8295,6 +8226,9 @@
       </c>
       <c r="H235" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J235" s="3" t="s">
         <v>19</v>
@@ -8305,63 +8239,63 @@
     </row>
     <row r="236" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <v>43749.628943194446</v>
+        <v>43749.983473622684</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
-        <v>43749.631162233796</v>
+        <v>43749.994804456015</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K237" s="3" t="s">
         <v>10</v>
@@ -8369,19 +8303,19 @@
     </row>
     <row r="238" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
-        <v>43749.714811516205</v>
+        <v>43750.23254045139</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>11</v>
@@ -8391,9 +8325,6 @@
       </c>
       <c r="H238" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J238" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K238" s="3" t="s">
         <v>20</v>
@@ -8401,16 +8332,16 @@
     </row>
     <row r="239" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
-        <v>43749.732844178245</v>
+        <v>43750.308058912036</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>4</v>
@@ -8424,28 +8355,22 @@
       <c r="H239" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I239" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K239" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
-        <v>43749.740932673609</v>
+        <v>43750.326485057871</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>4</v>
@@ -8457,45 +8382,45 @@
         <v>12</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J240" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
-        <v>43749.746849907402</v>
+        <v>43750.43688119213</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>10</v>
@@ -8503,54 +8428,51 @@
     </row>
     <row r="242" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
-        <v>43749.833350648143</v>
+        <v>43750.452260231483</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
-        <v>43749.837324490742</v>
+        <v>43750.546227534724</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>5</v>
@@ -8562,53 +8484,47 @@
         <v>18</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
-        <v>43749.849861655093</v>
+        <v>43750.56670354167</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I244" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K244" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
-        <v>43749.859091377315</v>
+        <v>43750.658729085648</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>1</v>
@@ -8620,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>11</v>
@@ -8629,13 +8545,13 @@
         <v>12</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K245" s="3" t="s">
         <v>20</v>
@@ -8643,22 +8559,22 @@
     </row>
     <row r="246" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
-        <v>43749.922519386571</v>
+        <v>43750.67413561343</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>6</v>
@@ -8666,22 +8582,25 @@
       <c r="H246" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I246" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J246" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
-        <v>43749.963882870376</v>
+        <v>43750.764986481481</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>3</v>
@@ -8690,30 +8609,30 @@
         <v>4</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
-        <v>43749.980835798611</v>
+        <v>43750.980556481481</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>4</v>
@@ -8722,53 +8641,50 @@
         <v>11</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
-        <v>43749.983473622684</v>
+        <v>43751.0341237963</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
-        <v>43749.994804456015</v>
+        <v>43751.520012824076</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>1</v>
@@ -8777,25 +8693,19 @@
         <v>21</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K250" s="3" t="s">
         <v>10</v>
@@ -8803,22 +8713,22 @@
     </row>
     <row r="251" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
-        <v>43750.23254045139</v>
+        <v>43751.540088240741</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>12</v>
@@ -8826,54 +8736,66 @@
       <c r="H251" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K251" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
-        <v>43750.308058912036</v>
+        <v>43751.634718472225</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
-        <v>43750.326485057871</v>
+        <v>43751.937866516208</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>11</v>
@@ -8882,53 +8804,53 @@
         <v>12</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
-        <v>43750.43688119213</v>
+        <v>43752.410948032411</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
-        <v>43750.452260231483</v>
+        <v>43752.465320532407</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>1</v>
@@ -8940,19 +8862,22 @@
         <v>3</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K255" s="3" t="s">
         <v>20</v>
@@ -8960,10 +8885,10 @@
     </row>
     <row r="256" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
-        <v>43750.546227534724</v>
+        <v>43752.561412326388</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>38</v>
@@ -8972,30 +8897,24 @@
         <v>29</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H256" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I256" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K256" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
-        <v>43750.56670354167</v>
+        <v>43752.61723491898</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>1</v>
@@ -9013,65 +8932,71 @@
         <v>5</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
-        <v>43750.658729085648</v>
+        <v>43752.741156064818</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J258" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
-        <v>43750.67413561343</v>
+        <v>43752.761451481478</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>5</v>
@@ -9083,27 +9008,27 @@
         <v>18</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J259" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
-        <v>43750.751907094906</v>
+        <v>43752.763699988427</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>4</v>
@@ -9112,498 +9037,44 @@
         <v>11</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <v>43750.764986481481</v>
+        <v>43752.768919942129</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A262" s="2">
-        <v>43750.980556481481</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K262" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A263" s="2">
-        <v>43751.0341237963</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A264" s="2">
-        <v>43751.520012824076</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K264" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A265" s="2">
-        <v>43751.540088240741</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J265" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="2">
-        <v>43751.634718472225</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="2">
-        <v>43751.937866516208</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H267" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J267" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K267" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="2">
-        <v>43752.410948032411</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="2">
-        <v>43752.465320532407</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H269" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I269" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="2">
-        <v>43752.561412326388</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="2">
-        <v>43752.61723491898</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H271" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J271" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="2">
-        <v>43752.741156064818</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J272" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A273" s="2">
-        <v>43752.761451481478</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H273" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J273" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A274" s="2">
-        <v>43752.763699988427</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A275" s="2">
-        <v>43752.768919942129</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J275" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K275" s="3" t="s">
         <v>15</v>
       </c>
     </row>
